--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.030420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Strathom.Spring.030420.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2995,12 +2995,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4973,12 +4973,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5939,12 +5939,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6023,12 +6023,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6149,12 +6149,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6947,12 +6947,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7115,12 +7115,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7157,12 +7157,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7703,12 +7703,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8663,12 +8663,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9167,12 +9167,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9209,12 +9209,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9251,12 +9251,12 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9503,12 +9503,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10007,12 +10007,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10301,12 +10301,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10935,12 +10935,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12067,12 +12067,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12407,12 +12407,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12701,12 +12701,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13037,12 +13037,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13373,12 +13373,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13457,12 +13457,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13499,12 +13499,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13541,12 +13541,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13625,12 +13625,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
